--- a/Data/DiapersModule.xlsx
+++ b/Data/DiapersModule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B79ADA-62D6-9745-A657-FCBE316C84D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB14562-DD9E-594A-9A23-920981B50478}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16020" xr2:uid="{7E3C8E42-499C-F84A-8156-83E883B72C35}"/>
   </bookViews>
@@ -43,7 +43,28 @@
 • No</t>
   </si>
   <si>
-    <t>Do you have a child(ren) who are still using diapers?        [Skip to End of Block if No]</t>
+    <t>What barriers are you experiencing to getting enough diapers to meet your needs? Select all that apply.</t>
+  </si>
+  <si>
+    <t>Do you know of organizations or specific locations that offer free or reduced-price diapers?</t>
+  </si>
+  <si>
+    <t>Do you usually receive diapers from organizations or specific locations that offer free or reduced-price diapers?</t>
+  </si>
+  <si>
+    <t>• Yes, I usually do
+• Yes, I sometimes do                          • No, I usually do not
+• No, I have never received free or reduced-price diapers</t>
+  </si>
+  <si>
+    <t>Developed by RAPID Team</t>
+  </si>
+  <si>
+    <t>Source Link</t>
+  </si>
+  <si>
+    <t>Do you have a child(ren) who are still using diapers? 
+[Skip to End of Block if No]</t>
   </si>
   <si>
     <r>
@@ -66,42 +87,24 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>?                                                                      [Skip to End of Block if Yes]</t>
+      <t>?                                                                      
+[Skip to End of Block if Yes]</t>
     </r>
   </si>
   <si>
-    <t>What barriers are you experiencing to getting enough diapers to meet your needs? Select all that apply.</t>
-  </si>
-  <si>
-    <t>Do you know of organizations or specific locations that offer free or reduced-price diapers?</t>
-  </si>
-  <si>
-    <t>Do you usually receive diapers from organizations or specific locations that offer free or reduced-price diapers?</t>
-  </si>
-  <si>
-    <t>•	Cost
-•	Unable to get time away from work
-•	Too busy, or not enough time
-•	Inability to find childcare
-•	Diapers were out of stock or unavailable where I usually purchase them                                                       •	I usually get diapers donated or provided free of charge, and they were not available  
-•	Concern over exposure to Coronavirus (COVID-19)  
-•	Caring for family members
-•	Transporation issues
-•	Other, Please describe:</t>
-  </si>
-  <si>
-    <t>• Yes, I usually do
-• Yes, I sometimes do                          • No, I usually do not
-• No, I have never received free or reduced-price diapers</t>
-  </si>
-  <si>
-    <t>[Display this question if "Do you usually receive diapers from organizations or specific locations that offer free or reduced-price diapers?" = Yes, I usually do OR Yes, I sometimes do]                                                                  What barriers are you experiencing to getting free or reduced-price diapers? Select all that apply.</t>
-  </si>
-  <si>
-    <t>Developed by RAPID Team</t>
-  </si>
-  <si>
-    <t>Frequency</t>
+    <t>[Display this question if "Do you usually receive diapers from organizations or specific locations that offer free or reduced-price diapers?" = Yes, I usually do OR Yes, I sometimes do] 
+What barriers are you experiencing to getting free or reduced-price diapers? Select all that apply.</t>
+  </si>
+  <si>
+    <t>•Cost
+•Unable to get time away from work
+•Too busy, or not enough time
+•Inability to find childcare
+•Diapers were out of stock or unavailable where I usually purchase them                                                       •I usually get diapers donated or provided free of charge, and they were not available  
+•Concern over exposure to Coronavirus (COVID-19)  
+•Caring for family members
+•Transporation issues
+•Other, Please describe:</t>
   </si>
 </sst>
 </file>
@@ -150,16 +153,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,16 +478,15 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="21.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -502,93 +501,93 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="272" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
+      <c r="A5" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="272" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="272" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>35</v>
       </c>
     </row>

--- a/Data/DiapersModule.xlsx
+++ b/Data/DiapersModule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB14562-DD9E-594A-9A23-920981B50478}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8ACBA1-E035-E84E-A7BC-651CDD367D75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16020" xr2:uid="{7E3C8E42-499C-F84A-8156-83E883B72C35}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27640" windowHeight="16020" xr2:uid="{7E3C8E42-499C-F84A-8156-83E883B72C35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/DiapersModule.xlsx
+++ b/Data/DiapersModule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8ACBA1-E035-E84E-A7BC-651CDD367D75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F106A9B5-26F0-E548-9B02-1C68030D7A16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27640" windowHeight="16020" xr2:uid="{7E3C8E42-499C-F84A-8156-83E883B72C35}"/>
   </bookViews>
@@ -50,11 +50,6 @@
   </si>
   <si>
     <t>Do you usually receive diapers from organizations or specific locations that offer free or reduced-price diapers?</t>
-  </si>
-  <si>
-    <t>• Yes, I usually do
-• Yes, I sometimes do                          • No, I usually do not
-• No, I have never received free or reduced-price diapers</t>
   </si>
   <si>
     <t>Developed by RAPID Team</t>
@@ -100,11 +95,18 @@
 •Unable to get time away from work
 •Too busy, or not enough time
 •Inability to find childcare
-•Diapers were out of stock or unavailable where I usually purchase them                                                       •I usually get diapers donated or provided free of charge, and they were not available  
-•Concern over exposure to Coronavirus (COVID-19)  
+•Diapers were out of stock or unavailable where I usually purchase them
+•I usually get diapers donated or provided free of charge, and they were not available  
+•Concern over exposure to Coronavirus (COVID-19)
 •Caring for family members
 •Transporation issues
 •Other, Please describe:</t>
+  </si>
+  <si>
+    <t>• Yes, I usually do
+• Yes, I sometimes do
+• No, I usually do not
+• No, I have never received free or reduced-price diapers</t>
   </si>
 </sst>
 </file>
@@ -477,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53862DCB-A5CE-3C4E-8D4A-BAD3A7097E09}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -501,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -509,13 +511,13 @@
     </row>
     <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1">
         <v>35</v>
@@ -523,13 +525,13 @@
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
         <v>35</v>
@@ -540,10 +542,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1">
         <v>35</v>
@@ -557,7 +559,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1">
         <v>35</v>
@@ -568,10 +570,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E6" s="1">
         <v>35</v>
@@ -579,13 +581,13 @@
     </row>
     <row r="7" spans="1:5" ht="272" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1">
         <v>35</v>

--- a/Data/DiapersModule.xlsx
+++ b/Data/DiapersModule.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25019"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F106A9B5-26F0-E548-9B02-1C68030D7A16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F106A9B5-26F0-E548-9B02-1C68030D7A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27640" windowHeight="16020" xr2:uid="{7E3C8E42-499C-F84A-8156-83E883B72C35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Question</t>
   </si>
@@ -36,30 +45,24 @@
     <t>Source</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t>Source Link</t>
+  </si>
+  <si>
+    <t>Dates Used</t>
+  </si>
+  <si>
+    <t>Do you have a child(ren) who are still using diapers? 
+[Skip to End of Block if No]</t>
   </si>
   <si>
     <t>• Yes
 • No</t>
   </si>
   <si>
-    <t>What barriers are you experiencing to getting enough diapers to meet your needs? Select all that apply.</t>
-  </si>
-  <si>
-    <t>Do you know of organizations or specific locations that offer free or reduced-price diapers?</t>
-  </si>
-  <si>
-    <t>Do you usually receive diapers from organizations or specific locations that offer free or reduced-price diapers?</t>
-  </si>
-  <si>
     <t>Developed by RAPID Team</t>
   </si>
   <si>
-    <t>Source Link</t>
-  </si>
-  <si>
-    <t>Do you have a child(ren) who are still using diapers? 
-[Skip to End of Block if No]</t>
+    <t>12/01/2020-12/03/2020</t>
   </si>
   <si>
     <r>
@@ -87,8 +90,7 @@
     </r>
   </si>
   <si>
-    <t>[Display this question if "Do you usually receive diapers from organizations or specific locations that offer free or reduced-price diapers?" = Yes, I usually do OR Yes, I sometimes do] 
-What barriers are you experiencing to getting free or reduced-price diapers? Select all that apply.</t>
+    <t>What barriers are you experiencing to getting enough diapers to meet your needs? Select all that apply.</t>
   </si>
   <si>
     <t>•Cost
@@ -103,17 +105,27 @@
 •Other, Please describe:</t>
   </si>
   <si>
+    <t>Do you know of organizations or specific locations that offer free or reduced-price diapers?</t>
+  </si>
+  <si>
+    <t>Do you usually receive diapers from organizations or specific locations that offer free or reduced-price diapers?</t>
+  </si>
+  <si>
     <t>• Yes, I usually do
 • Yes, I sometimes do
 • No, I usually do not
 • No, I have never received free or reduced-price diapers</t>
+  </si>
+  <si>
+    <t>[Display this question if "Do you usually receive diapers from organizations or specific locations that offer free or reduced-price diapers?" = Yes, I usually do OR Yes, I sometimes do] 
+What barriers are you experiencing to getting free or reduced-price diapers? Select all that apply.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -479,20 +491,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53862DCB-A5CE-3C4E-8D4A-BAD3A7097E09}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="46.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="1" customWidth="1"/>
-    <col min="3" max="4" width="21.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="4" width="21.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,94 +515,94 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="47.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="71.25">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:5" ht="236.25">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1">
-        <v>35</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="5" spans="1:5" ht="31.5">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1">
-        <v>35</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" ht="272" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="6" spans="1:5" ht="78.75">
+      <c r="A6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1">
-        <v>35</v>
-      </c>
     </row>
-    <row r="7" spans="1:5" ht="272" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="236.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E7" s="1">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
